--- a/MalusLaw.xlsx
+++ b/MalusLaw.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden Swanson\HaydSwanMeta\JupyterCode\Physics 422\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d1f3cf5ee91424/HaydSwanMeta/JupyterCode/Physics 422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F219DB6-0996-4937-976B-CE604A1F1D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{8F219DB6-0996-4937-976B-CE604A1F1D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5311E953-5EF8-489A-A91D-A07067E5A2D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35E5DBE7-5C03-42C3-9FCD-3A761AB49556}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{35E5DBE7-5C03-42C3-9FCD-3A761AB49556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Day2" sheetId="2" r:id="rId2"/>
+    <sheet name="Fiber" sheetId="3" r:id="rId3"/>
+    <sheet name="FiberB" sheetId="4" r:id="rId4"/>
+    <sheet name="Fiber2" sheetId="5" r:id="rId5"/>
+    <sheet name="FiberB2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t xml:space="preserve">Angle </t>
   </si>
@@ -521,7 +525,1575 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fiber!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fiber!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0E9-4B79-A186-6F046A06785F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Series2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fiber!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fiber!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0E9-4B79-A186-6F046A06785F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243419727"/>
+        <c:axId val="243420207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243419727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243420207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243420207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243419727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FiberB!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volts (New Polarizor)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FiberB!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FiberB!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D07-44BA-AFCF-634A27553BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="634548880"/>
+        <c:axId val="634549360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="634548880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634549360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634549360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634548880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fiber2!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fiber2!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6A0-4349-89A1-25EC1DACA909}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>series2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fiber2!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fiber2!$B$22:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6A0-4349-89A1-25EC1DACA909}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="149282863"/>
+        <c:axId val="149281423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="149282863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149281423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149281423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149282863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1077,20 +2649,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1116,6 +4236,133 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D0E881-328B-4248-27A6-684089F1AD7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88B85B5-FB9A-3A27-E46D-E0E3BD3125CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007A40B-67BE-B228-E3D8-979C279FB96D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A639F3-8A07-45F9-A3AC-4F934B1F1012}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,4 +5018,715 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E869173F-B240-435C-898D-7D7245FC11ED}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>130</v>
+      </c>
+      <c r="B12">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>140</v>
+      </c>
+      <c r="B13">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>160</v>
+      </c>
+      <c r="B15">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>170</v>
+      </c>
+      <c r="B16">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>190</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>210</v>
+      </c>
+      <c r="B20">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B524E3D9-B438-4FAA-88FC-D66628B319CA}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>130</v>
+      </c>
+      <c r="B12">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>140</v>
+      </c>
+      <c r="B13">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>160</v>
+      </c>
+      <c r="B15">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>170</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>190</v>
+      </c>
+      <c r="B18">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>210</v>
+      </c>
+      <c r="B20">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>220</v>
+      </c>
+      <c r="B21">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A88AAB5-EF9C-4DD4-B089-C24F06D7F4F6}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>180</v>
+      </c>
+      <c r="B19">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>110</v>
+      </c>
+      <c r="B32">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>120</v>
+      </c>
+      <c r="B33">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>130</v>
+      </c>
+      <c r="B34">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>140</v>
+      </c>
+      <c r="B35">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>160</v>
+      </c>
+      <c r="B37">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>170</v>
+      </c>
+      <c r="B38">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>180</v>
+      </c>
+      <c r="B39">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>190</v>
+      </c>
+      <c r="B40">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477F3432-5977-4D89-8AE6-151F37069948}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>